--- a/data/Unicrypt/Unicrypt20150701.xlsx
+++ b/data/Unicrypt/Unicrypt20150701.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185">
